--- a/ETCrescue/H1299/H1299_Met-rescue/12W_CC_exp/plotting_data.xlsx
+++ b/ETCrescue/H1299/H1299_Met-rescue/12W_CC_exp/plotting_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Desktop/12W_CC_exp_met/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/ETCrescue/H1299/H1299_Met-rescue/12W_CC_exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3451CB-149E-244E-93EA-661F1889CCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8F3E98-5387-1B41-856C-89FBEADA0440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{94DB56B0-83C4-3242-81CD-EB67C86EBD6C}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C828103C-8D88-154E-8625-142C92513668}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
